--- a/Forms/Power-Test_Order.xlsx
+++ b/Forms/Power-Test_Order.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -757,8 +757,8 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="95" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="95" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -813,7 +813,7 @@
       </c>
       <c r="B3" s="16">
         <f ca="1">TODAY()</f>
-        <v>42666</v>
+        <v>42677</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>26</v>
@@ -914,7 +914,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>61</v>
@@ -930,7 +930,7 @@
       </c>
       <c r="G8" s="13">
         <f t="shared" ref="G8:G17" si="1">B8*F8</f>
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>62</v>
@@ -1182,7 +1182,7 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G19" s="13">
         <f>SUM(G7:G17)</f>
-        <v>13.57</v>
+        <v>13.72</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
